--- a/artfynd/A 19867-2023.xlsx
+++ b/artfynd/A 19867-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,6 +2373,4264 @@
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112394982</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89820</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>658</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>583144</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7086546</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112392054</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>582996</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7086784</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112392562</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>582962</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7086769</v>
+      </c>
+      <c r="S19" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112410307</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90788</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>149</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tallgråticka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Boletopsis grisea</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Peck) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat, Ång</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>583078</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7086762</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112394591</v>
+      </c>
+      <c r="B21" t="n">
+        <v>89557</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>583080</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7086520</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112410309</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90229</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>757</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hapalopilus aurantiacus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Rostk.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat, Ång</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>583107</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7086784</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112390882</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>583082</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7086752</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112392981</v>
+      </c>
+      <c r="B24" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>583026</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7086695</v>
+      </c>
+      <c r="S24" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112392963</v>
+      </c>
+      <c r="B25" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>583016</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7086694</v>
+      </c>
+      <c r="S25" t="n">
+        <v>20</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112390676</v>
+      </c>
+      <c r="B26" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>583129</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7086741</v>
+      </c>
+      <c r="S26" t="n">
+        <v>20</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112390661</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>583124</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7086753</v>
+      </c>
+      <c r="S27" t="n">
+        <v>20</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112393743</v>
+      </c>
+      <c r="B28" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Stor-Kärmsjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>583023</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7086587</v>
+      </c>
+      <c r="S28" t="n">
+        <v>20</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Michaela Ehmann</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Michaela Ehmann</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112410310</v>
+      </c>
+      <c r="B29" t="n">
+        <v>89879</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat, Ång</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>583135</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7086538</v>
+      </c>
+      <c r="S29" t="n">
+        <v>20</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112394891</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>583120</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7086485</v>
+      </c>
+      <c r="S30" t="n">
+        <v>20</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112394821</v>
+      </c>
+      <c r="B31" t="n">
+        <v>89479</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>714</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tallstocksticka</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Osmoporus protractus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Fr.) Bondartsev</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>583113</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7086470</v>
+      </c>
+      <c r="S31" t="n">
+        <v>20</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112392728</v>
+      </c>
+      <c r="B32" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>582975</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7086712</v>
+      </c>
+      <c r="S32" t="n">
+        <v>20</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112393156</v>
+      </c>
+      <c r="B33" t="n">
+        <v>86445</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>816</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Smultronkantarell</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Aphroditeola olida</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Quél.) Redhead &amp; Manfr.Binder</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>583012</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7086649</v>
+      </c>
+      <c r="S33" t="n">
+        <v>20</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112392954</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>582996</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7086680</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112390945</v>
+      </c>
+      <c r="B35" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>583104</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7086760</v>
+      </c>
+      <c r="S35" t="n">
+        <v>25</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112391101</v>
+      </c>
+      <c r="B36" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>583079</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7086752</v>
+      </c>
+      <c r="S36" t="n">
+        <v>20</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112394819</v>
+      </c>
+      <c r="B37" t="n">
+        <v>78228</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>583122</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7086470</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112394482</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>583009</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7086522</v>
+      </c>
+      <c r="S38" t="n">
+        <v>20</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112393072</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>583009</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7086644</v>
+      </c>
+      <c r="S39" t="n">
+        <v>20</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112392726</v>
+      </c>
+      <c r="B40" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>582975</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7086712</v>
+      </c>
+      <c r="S40" t="n">
+        <v>20</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>112391727</v>
+      </c>
+      <c r="B41" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>583078</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7086773</v>
+      </c>
+      <c r="S41" t="n">
+        <v>20</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>112392138</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>582988</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7086764</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>112392567</v>
+      </c>
+      <c r="B43" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>582968</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7086771</v>
+      </c>
+      <c r="S43" t="n">
+        <v>20</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>112394976</v>
+      </c>
+      <c r="B44" t="n">
+        <v>89539</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>583147</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7086540</v>
+      </c>
+      <c r="S44" t="n">
+        <v>20</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>112410306</v>
+      </c>
+      <c r="B45" t="n">
+        <v>88623</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Vaddporing</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Anomoporia kamtschatica</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat, Ång</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>583095</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7086753</v>
+      </c>
+      <c r="S45" t="n">
+        <v>20</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112394597</v>
+      </c>
+      <c r="B46" t="n">
+        <v>78725</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6461</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Norrlandslav</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Nephroma arcticum</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(L.) Torss.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>583080</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7086520</v>
+      </c>
+      <c r="S46" t="n">
+        <v>20</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112393062</v>
+      </c>
+      <c r="B47" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>583010</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7086646</v>
+      </c>
+      <c r="S47" t="n">
+        <v>20</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112393075</v>
+      </c>
+      <c r="B48" t="n">
+        <v>77637</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>230405</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Garnlav (ssp. sarmentosa)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Stor-Kärmsjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>583043</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7086695</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Michaela Ehmann</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Michaela Ehmann</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112392703</v>
+      </c>
+      <c r="B49" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>582944</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7086696</v>
+      </c>
+      <c r="S49" t="n">
+        <v>20</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>112392979</v>
+      </c>
+      <c r="B50" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>583017</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7086682</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>112390125</v>
+      </c>
+      <c r="B51" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>583127</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7086576</v>
+      </c>
+      <c r="S51" t="n">
+        <v>25</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>112394137</v>
+      </c>
+      <c r="B52" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>583037</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7086577</v>
+      </c>
+      <c r="S52" t="n">
+        <v>20</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>112394201</v>
+      </c>
+      <c r="B53" t="n">
+        <v>90812</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Stor-Kärmsjön (Stor-Kärmsjön), Ång</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>583022</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7086571</v>
+      </c>
+      <c r="S53" t="n">
+        <v>20</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Michaela Ehmann</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Michaela Ehmann</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>112394498</v>
+      </c>
+      <c r="B54" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>583014</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7086534</v>
+      </c>
+      <c r="S54" t="n">
+        <v>20</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-08-20</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>112390467</v>
+      </c>
+      <c r="B55" t="n">
+        <v>77389</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>228912</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Mörk kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Carbonicola myrmecina</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>583121</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7086722</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>112394782</v>
+      </c>
+      <c r="B56" t="n">
+        <v>77388</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>583127</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7086464</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Helena Thau</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 19867-2023.xlsx
+++ b/artfynd/A 19867-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY56"/>
+  <dimension ref="A1:AY57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112410309</v>
+        <v>112390882</v>
       </c>
       <c r="B22" t="n">
-        <v>90229</v>
+        <v>90800</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2901,36 +2901,46 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>757</v>
+        <v>4364</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hapalopilus aurantiacus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Rostk.) Bondartsev &amp; Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat, Ång</t>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>583107</v>
+        <v>583082</v>
       </c>
       <c r="R22" t="n">
-        <v>7086784</v>
+        <v>7086752</v>
       </c>
       <c r="S22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2957,40 +2967,49 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112390882</v>
+        <v>112410309</v>
       </c>
       <c r="B23" t="n">
-        <v>90800</v>
+        <v>90229</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2999,46 +3018,36 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Dropptaggsvamp</t>
-        </is>
+        <v>757</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hapalopilus aurantiacus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Rostk.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+          <t>Kärmsjöbäckens naturreservat, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>583082</v>
+        <v>583107</v>
       </c>
       <c r="R23" t="n">
-        <v>7086752</v>
+        <v>7086784</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3065,39 +3074,30 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>11:58</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>11:58</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -6631,6 +6631,112 @@
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>112394707</v>
+      </c>
+      <c r="B57" t="n">
+        <v>89706</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1503</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Gräddporing</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Sidera lenis</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Stor-Kärmsjön, Stor-Kärmsjön, Junsele s:n, Ång</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>583090</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7086458</v>
+      </c>
+      <c r="S57" t="n">
+        <v>25</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 19867-2023.xlsx
+++ b/artfynd/A 19867-2023.xlsx
@@ -2375,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112394982</v>
+        <v>112392567</v>
       </c>
       <c r="B17" t="n">
-        <v>89820</v>
+        <v>90814</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2387,25 +2387,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2416,10 +2416,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>583144</v>
+        <v>582968</v>
       </c>
       <c r="R17" t="n">
-        <v>7086546</v>
+        <v>7086771</v>
       </c>
       <c r="S17" t="n">
         <v>20</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112392054</v>
+        <v>112393072</v>
       </c>
       <c r="B18" t="n">
-        <v>90800</v>
+        <v>90837</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2519,10 +2519,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>582996</v>
+        <v>583009</v>
       </c>
       <c r="R18" t="n">
-        <v>7086784</v>
+        <v>7086644</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112392562</v>
+        <v>112392981</v>
       </c>
       <c r="B19" t="n">
-        <v>90823</v>
+        <v>56430</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2597,35 +2597,40 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>582962</v>
+        <v>583026</v>
       </c>
       <c r="R19" t="n">
-        <v>7086769</v>
+        <v>7086695</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2684,10 +2689,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112410307</v>
+        <v>112394976</v>
       </c>
       <c r="B20" t="n">
-        <v>90788</v>
+        <v>89553</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2696,38 +2701,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>149</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tallgråticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Boletopsis grisea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Peck) Bondartsev &amp; Singer</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat, Ång</t>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>583078</v>
+        <v>583147</v>
       </c>
       <c r="R20" t="n">
-        <v>7086762</v>
+        <v>7086540</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2786,10 +2792,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112394591</v>
+        <v>112390125</v>
       </c>
       <c r="B21" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2802,38 +2808,43 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>583080</v>
+        <v>583127</v>
       </c>
       <c r="R21" t="n">
-        <v>7086520</v>
+        <v>7086576</v>
       </c>
       <c r="S21" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2860,9 +2871,19 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2877,22 +2898,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112390882</v>
+        <v>112392703</v>
       </c>
       <c r="B22" t="n">
-        <v>90800</v>
+        <v>56430</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2901,31 +2922,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2934,13 +2956,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>583082</v>
+        <v>582944</v>
       </c>
       <c r="R22" t="n">
-        <v>7086752</v>
+        <v>7086696</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2967,19 +2989,9 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>11:58</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>11:58</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2994,22 +3006,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112410309</v>
+        <v>112392979</v>
       </c>
       <c r="B23" t="n">
-        <v>90229</v>
+        <v>77650</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3022,32 +3034,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>757</v>
+        <v>6425</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hapalopilus aurantiacus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Rostk.) Bondartsev &amp; Singer</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat, Ång</t>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>583107</v>
+        <v>583017</v>
       </c>
       <c r="R23" t="n">
-        <v>7086784</v>
+        <v>7086682</v>
       </c>
       <c r="S23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3074,37 +3092,46 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112392981</v>
+        <v>112392963</v>
       </c>
       <c r="B24" t="n">
         <v>56430</v>
@@ -3150,10 +3177,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>583026</v>
+        <v>583016</v>
       </c>
       <c r="R24" t="n">
-        <v>7086695</v>
+        <v>7086694</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>
@@ -3212,10 +3239,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112392963</v>
+        <v>112394891</v>
       </c>
       <c r="B25" t="n">
-        <v>56430</v>
+        <v>90814</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3224,44 +3251,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>583016</v>
+        <v>583120</v>
       </c>
       <c r="R25" t="n">
-        <v>7086694</v>
+        <v>7086485</v>
       </c>
       <c r="S25" t="n">
         <v>20</v>
@@ -3320,10 +3342,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112390676</v>
+        <v>112394821</v>
       </c>
       <c r="B26" t="n">
-        <v>89503</v>
+        <v>89493</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3332,25 +3354,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5447</v>
+        <v>714</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tallstocksticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Osmoporus protractus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3361,10 +3383,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>583129</v>
+        <v>583113</v>
       </c>
       <c r="R26" t="n">
-        <v>7086741</v>
+        <v>7086470</v>
       </c>
       <c r="S26" t="n">
         <v>20</v>
@@ -3423,10 +3445,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112390661</v>
+        <v>112394498</v>
       </c>
       <c r="B27" t="n">
-        <v>96720</v>
+        <v>90814</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3435,32 +3457,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3468,10 +3486,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>583124</v>
+        <v>583014</v>
       </c>
       <c r="R27" t="n">
-        <v>7086753</v>
+        <v>7086534</v>
       </c>
       <c r="S27" t="n">
         <v>20</v>
@@ -3498,12 +3516,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3641,7 +3659,7 @@
         <v>112410310</v>
       </c>
       <c r="B29" t="n">
-        <v>89879</v>
+        <v>89893</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3740,10 +3758,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112394891</v>
+        <v>112394201</v>
       </c>
       <c r="B30" t="n">
-        <v>90800</v>
+        <v>90826</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3756,35 +3774,35 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+          <t>Stor-Kärmsjön (Stor-Kärmsjön), Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>583120</v>
+        <v>583022</v>
       </c>
       <c r="R30" t="n">
-        <v>7086485</v>
+        <v>7086571</v>
       </c>
       <c r="S30" t="n">
         <v>20</v>
@@ -3831,22 +3849,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Michaela Ehmann</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Michaela Ehmann</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112394821</v>
+        <v>112390661</v>
       </c>
       <c r="B31" t="n">
-        <v>89479</v>
+        <v>96735</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3859,24 +3877,28 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>714</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tallstocksticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Osmoporus protractus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Bondartsev</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -3884,10 +3906,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>583113</v>
+        <v>583124</v>
       </c>
       <c r="R31" t="n">
-        <v>7086470</v>
+        <v>7086753</v>
       </c>
       <c r="S31" t="n">
         <v>20</v>
@@ -3946,10 +3968,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112392728</v>
+        <v>112391101</v>
       </c>
       <c r="B32" t="n">
-        <v>89503</v>
+        <v>89553</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3958,25 +3980,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3987,10 +4009,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>582975</v>
+        <v>583079</v>
       </c>
       <c r="R32" t="n">
-        <v>7086712</v>
+        <v>7086752</v>
       </c>
       <c r="S32" t="n">
         <v>20</v>
@@ -4049,10 +4071,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112393156</v>
+        <v>112392728</v>
       </c>
       <c r="B33" t="n">
-        <v>86445</v>
+        <v>89517</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4061,25 +4083,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>816</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Smultronkantarell</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Aphroditeola olida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Quél.) Redhead &amp; Manfr.Binder</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4090,10 +4112,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>583012</v>
+        <v>582975</v>
       </c>
       <c r="R33" t="n">
-        <v>7086649</v>
+        <v>7086712</v>
       </c>
       <c r="S33" t="n">
         <v>20</v>
@@ -4152,10 +4174,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112392954</v>
+        <v>112393156</v>
       </c>
       <c r="B34" t="n">
-        <v>90800</v>
+        <v>86459</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4164,46 +4186,42 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>816</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Smultronkantarell</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Aphroditeola olida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Quél.) Redhead &amp; Manfr.Binder</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>582996</v>
+        <v>583012</v>
       </c>
       <c r="R34" t="n">
-        <v>7086680</v>
+        <v>7086649</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4230,19 +4248,9 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>14:07</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>14:07</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4257,12 +4265,12 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -4387,10 +4395,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112391101</v>
+        <v>112394782</v>
       </c>
       <c r="B36" t="n">
-        <v>89539</v>
+        <v>77402</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4403,21 +4411,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>6446</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4428,13 +4436,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>583079</v>
+        <v>583127</v>
       </c>
       <c r="R36" t="n">
-        <v>7086752</v>
+        <v>7086464</v>
       </c>
       <c r="S36" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4461,9 +4469,19 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4478,22 +4496,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112394819</v>
+        <v>112394482</v>
       </c>
       <c r="B37" t="n">
-        <v>78228</v>
+        <v>90814</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4502,25 +4520,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4531,13 +4549,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>583122</v>
+        <v>583009</v>
       </c>
       <c r="R37" t="n">
-        <v>7086470</v>
+        <v>7086522</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4561,22 +4579,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>15:15</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>15:15</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4591,22 +4599,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112394482</v>
+        <v>112410306</v>
       </c>
       <c r="B38" t="n">
-        <v>90800</v>
+        <v>88637</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4615,39 +4623,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+          <t>Kärmsjöbäckens naturreservat, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>583009</v>
+        <v>583095</v>
       </c>
       <c r="R38" t="n">
-        <v>7086522</v>
+        <v>7086753</v>
       </c>
       <c r="S38" t="n">
         <v>20</v>
@@ -4674,12 +4681,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4706,10 +4713,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112393072</v>
+        <v>112393062</v>
       </c>
       <c r="B39" t="n">
-        <v>90823</v>
+        <v>90814</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4718,25 +4725,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4747,10 +4754,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>583009</v>
+        <v>583010</v>
       </c>
       <c r="R39" t="n">
-        <v>7086644</v>
+        <v>7086646</v>
       </c>
       <c r="S39" t="n">
         <v>20</v>
@@ -4809,10 +4816,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112392726</v>
+        <v>112410309</v>
       </c>
       <c r="B40" t="n">
-        <v>90800</v>
+        <v>90243</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4821,39 +4828,33 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4364</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Dropptaggsvamp</t>
-        </is>
+        <v>757</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hapalopilus aurantiacus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Rostk.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+          <t>Kärmsjöbäckens naturreservat, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>582975</v>
+        <v>583107</v>
       </c>
       <c r="R40" t="n">
-        <v>7086712</v>
+        <v>7086784</v>
       </c>
       <c r="S40" t="n">
         <v>20</v>
@@ -4894,6 +4895,7 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -4912,10 +4914,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112391727</v>
+        <v>112392954</v>
       </c>
       <c r="B41" t="n">
-        <v>56575</v>
+        <v>90814</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4924,32 +4926,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>103021</v>
+        <v>4364</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>stationär</t>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -4958,13 +4959,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>583078</v>
+        <v>582996</v>
       </c>
       <c r="R41" t="n">
-        <v>7086773</v>
+        <v>7086680</v>
       </c>
       <c r="S41" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4991,9 +4992,19 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>14:07</t>
+        </is>
+      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5008,22 +5019,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112392138</v>
+        <v>112391727</v>
       </c>
       <c r="B42" t="n">
-        <v>90823</v>
+        <v>56575</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5036,38 +5047,43 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5966</v>
+        <v>103021</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>stationär</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>582988</v>
+        <v>583078</v>
       </c>
       <c r="R42" t="n">
-        <v>7086764</v>
+        <v>7086773</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5094,19 +5110,9 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>13:18</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>13:18</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5121,22 +5127,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112392567</v>
+        <v>112392562</v>
       </c>
       <c r="B43" t="n">
-        <v>90800</v>
+        <v>90837</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5145,25 +5151,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5174,10 +5180,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>582968</v>
+        <v>582962</v>
       </c>
       <c r="R43" t="n">
-        <v>7086771</v>
+        <v>7086769</v>
       </c>
       <c r="S43" t="n">
         <v>20</v>
@@ -5236,10 +5242,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112394976</v>
+        <v>112393075</v>
       </c>
       <c r="B44" t="n">
-        <v>89539</v>
+        <v>77651</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5252,38 +5258,38 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>230405</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+          <t>Stor-Kärmsjön, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>583147</v>
+        <v>583043</v>
       </c>
       <c r="R44" t="n">
-        <v>7086540</v>
+        <v>7086695</v>
       </c>
       <c r="S44" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5327,22 +5333,22 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Michaela Ehmann</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Michaela Ehmann</t>
         </is>
       </c>
       <c r="AY44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112410306</v>
+        <v>112392726</v>
       </c>
       <c r="B45" t="n">
-        <v>88623</v>
+        <v>90814</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5351,38 +5357,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat, Ång</t>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>583095</v>
+        <v>582975</v>
       </c>
       <c r="R45" t="n">
-        <v>7086753</v>
+        <v>7086712</v>
       </c>
       <c r="S45" t="n">
         <v>20</v>
@@ -5441,10 +5448,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112394597</v>
+        <v>112410307</v>
       </c>
       <c r="B46" t="n">
-        <v>78725</v>
+        <v>90802</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5453,39 +5460,38 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6461</v>
+        <v>149</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Tallgråticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Boletopsis grisea</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Peck) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+          <t>Kärmsjöbäckens naturreservat, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>583080</v>
+        <v>583078</v>
       </c>
       <c r="R46" t="n">
-        <v>7086520</v>
+        <v>7086762</v>
       </c>
       <c r="S46" t="n">
         <v>20</v>
@@ -5544,10 +5550,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112393062</v>
+        <v>112394819</v>
       </c>
       <c r="B47" t="n">
-        <v>90800</v>
+        <v>78242</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5556,25 +5562,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5585,13 +5591,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>583010</v>
+        <v>583122</v>
       </c>
       <c r="R47" t="n">
-        <v>7086646</v>
+        <v>7086470</v>
       </c>
       <c r="S47" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5618,9 +5624,19 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5635,22 +5651,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112393075</v>
+        <v>112390676</v>
       </c>
       <c r="B48" t="n">
-        <v>77637</v>
+        <v>89517</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5659,42 +5675,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>230405</v>
+        <v>5447</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Stor-Kärmsjön, Ång</t>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>583043</v>
+        <v>583129</v>
       </c>
       <c r="R48" t="n">
-        <v>7086695</v>
+        <v>7086741</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5738,22 +5754,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Michaela Ehmann</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Michaela Ehmann</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112392703</v>
+        <v>112390467</v>
       </c>
       <c r="B49" t="n">
-        <v>56430</v>
+        <v>77403</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5766,43 +5782,47 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>582944</v>
+        <v>583121</v>
       </c>
       <c r="R49" t="n">
-        <v>7086696</v>
+        <v>7086722</v>
       </c>
       <c r="S49" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -5829,9 +5849,19 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>11:23</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>11:23</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5846,22 +5876,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112392979</v>
+        <v>112392138</v>
       </c>
       <c r="B50" t="n">
-        <v>77636</v>
+        <v>90837</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5874,21 +5904,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>5966</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5899,10 +5929,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>583017</v>
+        <v>582988</v>
       </c>
       <c r="R50" t="n">
-        <v>7086682</v>
+        <v>7086764</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5934,7 +5964,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -5944,7 +5974,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>13:18</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5971,10 +6001,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112390125</v>
+        <v>112392054</v>
       </c>
       <c r="B51" t="n">
-        <v>56430</v>
+        <v>90814</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5983,47 +6013,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>4364</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>583127</v>
+        <v>582996</v>
       </c>
       <c r="R51" t="n">
-        <v>7086576</v>
+        <v>7086784</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6050,19 +6075,9 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>10:57</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>10:57</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6077,22 +6092,22 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112394137</v>
+        <v>112394591</v>
       </c>
       <c r="B52" t="n">
-        <v>90823</v>
+        <v>89571</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6105,21 +6120,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5966</v>
+        <v>5432</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6130,10 +6145,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>583037</v>
+        <v>583080</v>
       </c>
       <c r="R52" t="n">
-        <v>7086577</v>
+        <v>7086520</v>
       </c>
       <c r="S52" t="n">
         <v>20</v>
@@ -6192,10 +6207,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112394201</v>
+        <v>112394597</v>
       </c>
       <c r="B53" t="n">
-        <v>90812</v>
+        <v>78739</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6208,35 +6223,35 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4366</v>
+        <v>6461</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Stor-Kärmsjön (Stor-Kärmsjön), Ång</t>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>583022</v>
+        <v>583080</v>
       </c>
       <c r="R53" t="n">
-        <v>7086571</v>
+        <v>7086520</v>
       </c>
       <c r="S53" t="n">
         <v>20</v>
@@ -6283,22 +6298,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Michaela Ehmann</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Michaela Ehmann</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112394498</v>
+        <v>112390882</v>
       </c>
       <c r="B54" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6329,20 +6344,24 @@
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>583014</v>
+        <v>583082</v>
       </c>
       <c r="R54" t="n">
-        <v>7086534</v>
+        <v>7086752</v>
       </c>
       <c r="S54" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6366,12 +6385,22 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6386,22 +6415,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112390467</v>
+        <v>112394982</v>
       </c>
       <c r="B55" t="n">
-        <v>77389</v>
+        <v>89834</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6414,33 +6443,24 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>228912</v>
+        <v>658</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>cm²</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6448,13 +6468,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>583121</v>
+        <v>583144</v>
       </c>
       <c r="R55" t="n">
-        <v>7086722</v>
+        <v>7086546</v>
       </c>
       <c r="S55" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6481,19 +6501,9 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>11:23</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>11:23</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6508,22 +6518,22 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112394782</v>
+        <v>112394137</v>
       </c>
       <c r="B56" t="n">
-        <v>77388</v>
+        <v>90837</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6536,21 +6546,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6446</v>
+        <v>5966</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6561,13 +6571,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>583127</v>
+        <v>583037</v>
       </c>
       <c r="R56" t="n">
-        <v>7086464</v>
+        <v>7086577</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -6594,19 +6604,9 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>14:10</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>14:10</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6621,12 +6621,12 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>

--- a/artfynd/A 19867-2023.xlsx
+++ b/artfynd/A 19867-2023.xlsx
@@ -2581,7 +2581,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112392981</v>
+        <v>112390125</v>
       </c>
       <c r="B19" t="n">
         <v>56430</v>
@@ -2618,7 +2618,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2627,13 +2627,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>583026</v>
+        <v>583127</v>
       </c>
       <c r="R19" t="n">
-        <v>7086695</v>
+        <v>7086576</v>
       </c>
       <c r="S19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2660,9 +2660,19 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>10:57</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2677,22 +2687,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112394976</v>
+        <v>112392981</v>
       </c>
       <c r="B20" t="n">
-        <v>89553</v>
+        <v>56430</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2705,35 +2715,40 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>583147</v>
+        <v>583026</v>
       </c>
       <c r="R20" t="n">
-        <v>7086540</v>
+        <v>7086695</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2792,10 +2807,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112390125</v>
+        <v>112394976</v>
       </c>
       <c r="B21" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2808,43 +2823,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>583127</v>
+        <v>583147</v>
       </c>
       <c r="R21" t="n">
-        <v>7086576</v>
+        <v>7086540</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2871,19 +2881,9 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>10:57</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>10:57</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2898,12 +2898,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112392979</v>
+        <v>112393743</v>
       </c>
       <c r="B23" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3034,38 +3034,43 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+          <t>Stor-Kärmsjön, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>583017</v>
+        <v>583023</v>
       </c>
       <c r="R23" t="n">
-        <v>7086682</v>
+        <v>7086587</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3092,19 +3097,9 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>14:10</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>14:10</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3119,12 +3114,12 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Michaela Ehmann</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Michaela Ehmann</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -3548,10 +3543,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112393743</v>
+        <v>112392979</v>
       </c>
       <c r="B28" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3564,43 +3559,38 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Stor-Kärmsjön, Ång</t>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>583023</v>
+        <v>583017</v>
       </c>
       <c r="R28" t="n">
-        <v>7086587</v>
+        <v>7086682</v>
       </c>
       <c r="S28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3627,9 +3617,19 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3644,12 +3644,12 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Michaela Ehmann</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Michaela Ehmann</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
@@ -4277,10 +4277,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112390945</v>
+        <v>112394482</v>
       </c>
       <c r="B35" t="n">
-        <v>56430</v>
+        <v>90814</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4289,47 +4289,42 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>583104</v>
+        <v>583009</v>
       </c>
       <c r="R35" t="n">
-        <v>7086760</v>
+        <v>7086522</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4353,22 +4348,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>12:01</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>12:01</t>
+          <t>2023-08-20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4383,22 +4368,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112394782</v>
+        <v>112410306</v>
       </c>
       <c r="B36" t="n">
-        <v>77402</v>
+        <v>88637</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4411,38 +4396,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6446</v>
+        <v>1962</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
+          <t>Kärmsjöbäckens naturreservat, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>583127</v>
+        <v>583095</v>
       </c>
       <c r="R36" t="n">
-        <v>7086464</v>
+        <v>7086753</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4469,19 +4453,9 @@
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>14:10</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>14:10</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4496,22 +4470,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Helena Thau</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112394482</v>
+        <v>112390945</v>
       </c>
       <c r="B37" t="n">
-        <v>90814</v>
+        <v>56430</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4520,42 +4494,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>583009</v>
+        <v>583104</v>
       </c>
       <c r="R37" t="n">
-        <v>7086522</v>
+        <v>7086760</v>
       </c>
       <c r="S37" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4579,12 +4558,22 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-08-20</t>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4599,22 +4588,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112410306</v>
+        <v>112394782</v>
       </c>
       <c r="B38" t="n">
-        <v>88637</v>
+        <v>77402</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4627,37 +4616,38 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1962</v>
+        <v>6446</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Kärmsjöbäckens naturreservat, Ång</t>
+          <t>Kärmsjöbäckens naturreservat (Kärmsjöbäckens naturreservat), Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>583095</v>
+        <v>583127</v>
       </c>
       <c r="R38" t="n">
-        <v>7086753</v>
+        <v>7086464</v>
       </c>
       <c r="S38" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4684,9 +4674,19 @@
           <t>2023-09-29</t>
         </is>
       </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>14:10</t>
+        </is>
+      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>14:10</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4701,12 +4701,12 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Helena Thau</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
